--- a/data/trans_orig/P36BPD07_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD07_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>115477</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>97085</v>
+        <v>96971</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>136258</v>
+        <v>137990</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2097233068812094</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1763197705304865</v>
+        <v>0.1761135386618389</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2474632289544282</v>
+        <v>0.2506090540855728</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>104</v>
@@ -762,19 +762,19 @@
         <v>77954</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64528</v>
+        <v>64332</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>93216</v>
+        <v>92052</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1602899282897697</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1326817213220112</v>
+        <v>0.1322785174375862</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1916712034619208</v>
+        <v>0.1892781898245474</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>219</v>
@@ -783,19 +783,19 @@
         <v>193432</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>169813</v>
+        <v>170284</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>219211</v>
+        <v>217891</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.186538891568499</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1637614445848836</v>
+        <v>0.1642157121259351</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.211398968753352</v>
+        <v>0.2101266263931504</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>435141</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>414360</v>
+        <v>412628</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>453533</v>
+        <v>453647</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7902766931187907</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7525367710455718</v>
+        <v>0.7493909459144269</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8236802294695139</v>
+        <v>0.8238864613381609</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>579</v>
@@ -833,19 +833,19 @@
         <v>408380</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>393118</v>
+        <v>394282</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>421806</v>
+        <v>422002</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8397100717102303</v>
+        <v>0.8397100717102304</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8083287965380792</v>
+        <v>0.8107218101754529</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8673182786779888</v>
+        <v>0.8677214825624139</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1018</v>
@@ -854,19 +854,19 @@
         <v>843520</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>817741</v>
+        <v>819061</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>867139</v>
+        <v>866668</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8134611084315011</v>
+        <v>0.8134611084315009</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7886010312466482</v>
+        <v>0.7898733736068496</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8362385554151165</v>
+        <v>0.8357842878740649</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>124099</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>105199</v>
+        <v>105658</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>145798</v>
+        <v>147045</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2568219915011787</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2177087552863247</v>
+        <v>0.2186582402177904</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3017270547622648</v>
+        <v>0.3043075664623457</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>111</v>
@@ -979,19 +979,19 @@
         <v>89828</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>74107</v>
+        <v>76839</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>107074</v>
+        <v>106174</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2122880053269901</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1751351921293536</v>
+        <v>0.1815921248187403</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2530433792810332</v>
+        <v>0.25091699677059</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>233</v>
@@ -1000,19 +1000,19 @@
         <v>213928</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>189690</v>
+        <v>187817</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>239791</v>
+        <v>237880</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2360307584925859</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2092888903070425</v>
+        <v>0.2072226756356751</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2645658097640465</v>
+        <v>0.2624581019862259</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>359113</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>337414</v>
+        <v>336167</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>378013</v>
+        <v>377554</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7431780084988214</v>
+        <v>0.7431780084988213</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6982729452377352</v>
+        <v>0.6956924335376538</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7822912447136752</v>
+        <v>0.7813417597822094</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>479</v>
@@ -1050,19 +1050,19 @@
         <v>333315</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>316069</v>
+        <v>316969</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>349036</v>
+        <v>346304</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7877119946730098</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7469566207189667</v>
+        <v>0.7490830032294102</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8248648078706465</v>
+        <v>0.8184078751812596</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>838</v>
@@ -1071,19 +1071,19 @@
         <v>692427</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>666564</v>
+        <v>668475</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>716665</v>
+        <v>718538</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7639692415074142</v>
+        <v>0.7639692415074141</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7354341902359534</v>
+        <v>0.7375418980137741</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7907111096929575</v>
+        <v>0.7927773243643249</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>139593</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>119839</v>
+        <v>119182</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>159433</v>
+        <v>161322</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2965354798955992</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.254572437725632</v>
+        <v>0.2531760460219646</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3386800642236516</v>
+        <v>0.3426935584229892</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -1196,19 +1196,19 @@
         <v>42331</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32924</v>
+        <v>34549</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52363</v>
+        <v>53350</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2257667496405719</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1755953921656833</v>
+        <v>0.1842653228270098</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2792721628181615</v>
+        <v>0.284535434804613</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>202</v>
@@ -1217,19 +1217,19 @@
         <v>181924</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>159177</v>
+        <v>160605</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>204603</v>
+        <v>205535</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2763773880590046</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2418212989397289</v>
+        <v>0.2439895704668163</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3108312744276714</v>
+        <v>0.3122470125729968</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>331154</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>311314</v>
+        <v>309425</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>350908</v>
+        <v>351565</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.703464520104401</v>
+        <v>0.7034645201044006</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6613199357763483</v>
+        <v>0.6573064415770108</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7454275622743678</v>
+        <v>0.7468239539780351</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>228</v>
@@ -1267,19 +1267,19 @@
         <v>145166</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>135134</v>
+        <v>134147</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>154573</v>
+        <v>152948</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7742332503594281</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7207278371818385</v>
+        <v>0.7154645651953869</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8244046078343167</v>
+        <v>0.8157346771729902</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>574</v>
@@ -1288,19 +1288,19 @@
         <v>476320</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>453641</v>
+        <v>452709</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>499067</v>
+        <v>497639</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7236226119409954</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6891687255723287</v>
+        <v>0.6877529874270034</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7581787010602711</v>
+        <v>0.7560104295331835</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>332133</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>298661</v>
+        <v>300586</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>368011</v>
+        <v>368047</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2937229876668792</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2641217140925943</v>
+        <v>0.2658240221887013</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3254518348055411</v>
+        <v>0.3254835505712408</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>256</v>
@@ -1413,19 +1413,19 @@
         <v>209300</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>184678</v>
+        <v>187334</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>230656</v>
+        <v>232824</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2435943461017081</v>
+        <v>0.2435943461017082</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2149374880658774</v>
+        <v>0.2180291473692366</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2684494056626262</v>
+        <v>0.2709725510266365</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>554</v>
@@ -1434,19 +1434,19 @@
         <v>541433</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>502681</v>
+        <v>500899</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>582674</v>
+        <v>580853</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2720789703891437</v>
+        <v>0.2720789703891438</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2526055116055708</v>
+        <v>0.251710176403747</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.292803394882335</v>
+        <v>0.2918880251828329</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>798637</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>762759</v>
+        <v>762723</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>832109</v>
+        <v>830184</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7062770123331209</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.674548165194459</v>
+        <v>0.6745164494287594</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7358782859074062</v>
+        <v>0.7341759778112988</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>971</v>
@@ -1484,19 +1484,19 @@
         <v>649915</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>628559</v>
+        <v>626391</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>674537</v>
+        <v>671881</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7564056538982918</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7315505943373736</v>
+        <v>0.7290274489733635</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7850625119341226</v>
+        <v>0.7819708526307634</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1790</v>
@@ -1505,19 +1505,19 @@
         <v>1448552</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1407311</v>
+        <v>1409132</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1487304</v>
+        <v>1489086</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7279210296108563</v>
+        <v>0.7279210296108564</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.707196605117665</v>
+        <v>0.7081119748171677</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7473944883944292</v>
+        <v>0.7482898235962531</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>193679</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>168807</v>
+        <v>169186</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>220106</v>
+        <v>218815</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3422230986148516</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2982741739993567</v>
+        <v>0.2989444089019796</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3889181173922403</v>
+        <v>0.3866367719233662</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>287</v>
@@ -1630,19 +1630,19 @@
         <v>207573</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>185576</v>
+        <v>184612</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>231031</v>
+        <v>229784</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2500554802312085</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2235564977286578</v>
+        <v>0.2223960377944292</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2783144971215524</v>
+        <v>0.2768125854089407</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>456</v>
@@ -1651,19 +1651,19 @@
         <v>401252</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>368851</v>
+        <v>369221</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>435649</v>
+        <v>435981</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2874193214316751</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2642101724907053</v>
+        <v>0.2644752228864326</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3120581375771375</v>
+        <v>0.3122956803813629</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>372266</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>345839</v>
+        <v>347130</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>397138</v>
+        <v>396759</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6577769013851484</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.611081882607761</v>
+        <v>0.6133632280766341</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7017258260006433</v>
+        <v>0.7010555910980204</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1002</v>
@@ -1701,19 +1701,19 @@
         <v>622533</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>599075</v>
+        <v>600322</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>644530</v>
+        <v>645494</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7499445197687916</v>
+        <v>0.7499445197687915</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7216855028784477</v>
+        <v>0.7231874145910591</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7764435022713422</v>
+        <v>0.7776039622055707</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1378</v>
@@ -1722,19 +1722,19 @@
         <v>994799</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>960402</v>
+        <v>960070</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1027200</v>
+        <v>1026830</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7125806785683249</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6879418624228624</v>
+        <v>0.687704319618637</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7357898275092933</v>
+        <v>0.7355247771135673</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>78251</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>57505</v>
+        <v>57331</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>104252</v>
+        <v>100852</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.3315319296297803</v>
+        <v>0.3315319296297805</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2436374062987249</v>
+        <v>0.2428989321288135</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4416910811260672</v>
+        <v>0.4272877390825752</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>272</v>
@@ -1847,19 +1847,19 @@
         <v>234283</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>209341</v>
+        <v>207931</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>265360</v>
+        <v>260716</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2776946842157398</v>
+        <v>0.2776946842157399</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2481310976961237</v>
+        <v>0.2464602659607174</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.314530668509802</v>
+        <v>0.309026380101778</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>310</v>
@@ -1868,19 +1868,19 @@
         <v>312534</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>278751</v>
+        <v>278527</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>350905</v>
+        <v>346591</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.289463836526118</v>
+        <v>0.2894638365261181</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2581748596244557</v>
+        <v>0.257967374739859</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.325002980579162</v>
+        <v>0.3210069316179747</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>157778</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>131777</v>
+        <v>135177</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>178524</v>
+        <v>178698</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6684680703702197</v>
+        <v>0.6684680703702196</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5583089188739324</v>
+        <v>0.5727122609174249</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7563625937012752</v>
+        <v>0.7571010678711869</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>886</v>
@@ -1918,19 +1918,19 @@
         <v>609387</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>578310</v>
+        <v>582954</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>634329</v>
+        <v>635739</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7223053157842602</v>
+        <v>0.7223053157842603</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6854693314901978</v>
+        <v>0.6909736198982219</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7518689023038764</v>
+        <v>0.7535397340392824</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>959</v>
@@ -1939,19 +1939,19 @@
         <v>767165</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>728794</v>
+        <v>733108</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>800948</v>
+        <v>801172</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7105361634738819</v>
+        <v>0.710536163473882</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6749970194208379</v>
+        <v>0.6789930683820252</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7418251403755443</v>
+        <v>0.742032625260141</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>983234</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>930060</v>
+        <v>928032</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1044895</v>
+        <v>1047957</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2860465519243383</v>
+        <v>0.2860465519243382</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2705771278814174</v>
+        <v>0.2699870184850995</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.303985199841714</v>
+        <v>0.3048762120421301</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1091</v>
@@ -2064,19 +2064,19 @@
         <v>861268</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>815180</v>
+        <v>810213</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>912967</v>
+        <v>907574</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.237266305233318</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2245695581289093</v>
+        <v>0.2232014080058397</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2515084507224044</v>
+        <v>0.2500227056353598</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1974</v>
@@ -2085,19 +2085,19 @@
         <v>1844502</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1768624</v>
+        <v>1767879</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1923542</v>
+        <v>1924889</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2609915908467566</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2502550709742788</v>
+        <v>0.2501496828419506</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2721754809534521</v>
+        <v>0.2723660750237841</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>2454087</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2392426</v>
+        <v>2389364</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2507261</v>
+        <v>2509289</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.713953448075662</v>
+        <v>0.7139534480756619</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6960148001582859</v>
+        <v>0.6951237879578701</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7294228721185826</v>
+        <v>0.7300129815149008</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4145</v>
@@ -2135,19 +2135,19 @@
         <v>2768697</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2716998</v>
+        <v>2722391</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2814785</v>
+        <v>2819752</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7627336947666822</v>
+        <v>0.7627336947666821</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7484915492775958</v>
+        <v>0.7499772943646408</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7754304418710909</v>
+        <v>0.7767985919941608</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6557</v>
@@ -2156,19 +2156,19 @@
         <v>5222784</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5143744</v>
+        <v>5142397</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5298662</v>
+        <v>5299407</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7390084091532433</v>
+        <v>0.7390084091532435</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.727824519046548</v>
+        <v>0.7276339249762159</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7497449290257211</v>
+        <v>0.7498503171580496</v>
       </c>
     </row>
     <row r="24">
